--- a/02.Implementación de proyecto/Primer Sprint/SGySHT_ReporteSprint1_v1.xlsx
+++ b/02.Implementación de proyecto/Primer Sprint/SGySHT_ReporteSprint1_v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SoyAleZamora\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SoyAleZamora\Desktop\Proyecto_SGySHT\Proyecto_SGySHT\02.Implementación de proyecto\Primer Sprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1541,6 +1541,35 @@
   <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Fecha</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" baseline="0"/>
+              <a:t>  de finalización estimal y actual</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3854,9 +3883,9 @@
   </sheetPr>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/02.Implementación de proyecto/Primer Sprint/SGySHT_ReporteSprint1_v1.xlsx
+++ b/02.Implementación de proyecto/Primer Sprint/SGySHT_ReporteSprint1_v1.xlsx
@@ -28,12 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>Proyecto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porcentaje de valor superior o inferior para marca: </t>
   </si>
   <si>
     <t>Categoría</t>
@@ -536,6 +533,20 @@
   <dxfs count="30">
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -912,20 +923,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1565,7 +1562,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="es-MX" baseline="0"/>
-              <a:t>  de finalización estimal y actual</a:t>
+              <a:t>  de finalización estimada y actual</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3246,10 +3243,10 @@
       <xdr:rowOff>31748</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>380999</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3270,16 +3267,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>253999</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>904874</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3383,47 +3380,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="SeguimientoDeProyectos" displayName="SeguimientoDeProyectos" ref="B4:N12" totalsRowShown="0" headerRowDxfId="25" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="SeguimientoDeProyectos" displayName="SeguimientoDeProyectos" ref="B4:N12" totalsRowShown="0" headerRowDxfId="27" tableBorderDxfId="26">
   <autoFilter ref="B4:N12"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Proyecto" dataDxfId="23" dataCellStyle="Texto"/>
-    <tableColumn id="2" name="Categoría" dataDxfId="22" dataCellStyle="Texto"/>
-    <tableColumn id="3" name="Asignado a" dataDxfId="21" dataCellStyle="Texto"/>
-    <tableColumn id="4" name="Estimado_x000a_Inicio" dataDxfId="20" dataCellStyle="Fecha"/>
-    <tableColumn id="5" name="Estimado _x000a_Finalización" dataDxfId="19" dataCellStyle="Fecha"/>
-    <tableColumn id="6" name="Trabajo estimado (en horas)" dataDxfId="18" dataCellStyle="Números"/>
-    <tableColumn id="7" name="Duración estimada (en días)" dataDxfId="17" dataCellStyle="Duración estimada">
+    <tableColumn id="1" name="Proyecto" dataDxfId="25" dataCellStyle="Texto"/>
+    <tableColumn id="2" name="Categoría" dataDxfId="24" dataCellStyle="Texto"/>
+    <tableColumn id="3" name="Asignado a" dataDxfId="23" dataCellStyle="Texto"/>
+    <tableColumn id="4" name="Estimado_x000a_Inicio" dataDxfId="22" dataCellStyle="Fecha"/>
+    <tableColumn id="5" name="Estimado _x000a_Finalización" dataDxfId="21" dataCellStyle="Fecha"/>
+    <tableColumn id="6" name="Trabajo estimado (en horas)" dataDxfId="20" dataCellStyle="Números"/>
+    <tableColumn id="7" name="Duración estimada (en días)" dataDxfId="19" dataCellStyle="Duración estimada">
       <calculatedColumnFormula>IF(COUNTA('Seguimiento de proyectos'!$E5,'Seguimiento de proyectos'!$F5)&lt;&gt;2,"",DAYS360('Seguimiento de proyectos'!$E5,'Seguimiento de proyectos'!$F5,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Real _x000a_Inicio" dataDxfId="16" dataCellStyle="Inicio real"/>
-    <tableColumn id="9" name="Real_x000a_Finalización" dataDxfId="15" dataCellStyle="Fecha"/>
-    <tableColumn id="11" name="Trabajo real (en horas)" dataDxfId="14" dataCellStyle="Números"/>
-    <tableColumn id="13" name="Duración real (en días)" dataDxfId="13" dataCellStyle="Columna gris">
+    <tableColumn id="8" name="Real _x000a_Inicio" dataDxfId="18" dataCellStyle="Inicio real"/>
+    <tableColumn id="9" name="Real_x000a_Finalización" dataDxfId="17" dataCellStyle="Fecha"/>
+    <tableColumn id="11" name="Trabajo real (en horas)" dataDxfId="16" dataCellStyle="Números"/>
+    <tableColumn id="13" name="Duración real (en días)" dataDxfId="15" dataCellStyle="Columna gris">
       <calculatedColumnFormula>IF(COUNTA('Seguimiento de proyectos'!$I5,'Seguimiento de proyectos'!$J5)&lt;&gt;2,"",DAYS360('Seguimiento de proyectos'!$I5,'Seguimiento de proyectos'!$J5,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Peso" dataDxfId="12" dataCellStyle="Texto"/>
-    <tableColumn id="10" name="Completa" dataDxfId="11" dataCellStyle="Texto"/>
+    <tableColumn id="16" name="Peso" dataDxfId="14" dataCellStyle="Texto"/>
+    <tableColumn id="10" name="Completa" dataDxfId="13" dataCellStyle="Texto"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabla personalizado 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla4" displayName="Tabla4" ref="N25:O27" headerRowCount="0" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla4" displayName="Tabla4" ref="Q23:R25" headerRowCount="0" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <tableColumns count="2">
-    <tableColumn id="1" name="Columna1" headerRowDxfId="8" dataDxfId="7"/>
-    <tableColumn id="2" name="Columna2" headerRowDxfId="6" dataDxfId="5"/>
+    <tableColumn id="1" name="Columna1" headerRowDxfId="10" dataDxfId="9"/>
+    <tableColumn id="2" name="Columna2" headerRowDxfId="8" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TablaDeCategoríasYEmpleados" displayName="TablaDeCategoríasYEmpleados" ref="B4:C10" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2" headerRowCellStyle="Título 2" dataCellStyle="Texto">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TablaDeCategoríasYEmpleados" displayName="TablaDeCategoríasYEmpleados" ref="B4:C10" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4" headerRowCellStyle="Título 2" dataCellStyle="Texto">
   <autoFilter ref="B4:C10"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Nombre de categoría" dataDxfId="1" dataCellStyle="Texto"/>
-    <tableColumn id="2" name="Nombre del empleado" dataDxfId="0" dataCellStyle="Texto"/>
+    <tableColumn id="1" name="Nombre de categoría" dataDxfId="3" dataCellStyle="Texto"/>
+    <tableColumn id="2" name="Nombre del empleado" dataDxfId="2" dataCellStyle="Texto"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabla personalizado 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3881,11 +3878,11 @@
     <tabColor theme="9"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3908,16 +3905,14 @@
   <sheetData>
     <row r="1" spans="1:15" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1"/>
     </row>
     <row r="2" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="C2" s="4"/>
       <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3929,51 +3924,51 @@
         <v>0</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="H4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="I4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="J4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="K4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="L4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="M4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="E5" s="8">
         <f>DATE(2019,3,25)</f>
@@ -4008,18 +4003,18 @@
         <v>3</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="8">
         <f>DATE(2019,3,25)</f>
@@ -4054,18 +4049,18 @@
         <v>3</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="8">
         <f>DATE(2019,3,27)</f>
@@ -4099,18 +4094,18 @@
         <v>3</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="8">
         <f>DATE(2019,3,26)</f>
@@ -4145,18 +4140,18 @@
         <v>3</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="8">
         <f>DATE(2019,3,30)</f>
@@ -4191,18 +4186,18 @@
         <v>3</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="8">
         <f>DATE(2019,4,1)</f>
@@ -4237,18 +4232,18 @@
         <v>3</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="8">
         <f>DATE(2019,3,28)</f>
@@ -4284,18 +4279,18 @@
         <v>3</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="8">
         <f>DATE(2019,3,30)</f>
@@ -4329,12 +4324,12 @@
         <v>2</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M14" s="1">
         <v>5</v>
@@ -4342,7 +4337,7 @@
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M15" s="1">
         <v>80</v>
@@ -4351,65 +4346,65 @@
         <v>100</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M16" s="1">
         <f>SUM(SeguimientoDeProyectos[Peso])+M14</f>
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="13:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="13:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N17" s="22">
         <f>(N15*M16)/M15</f>
         <v>35</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="18" spans="13:15" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="13:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N25" s="1" t="s">
+    <row r="18" spans="13:18" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="13:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O25" s="1" t="s">
+    </row>
+    <row r="24" spans="13:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q24" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="13:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O26" s="1">
+      <c r="R24" s="1">
         <f>SUM(SeguimientoDeProyectos[Trabajo estimado (en horas)])</f>
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="13:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O27" s="1">
+    <row r="25" spans="13:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R25" s="1">
         <f>SUM(SeguimientoDeProyectos[Trabajo real (en horas)])</f>
         <v>87</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K5:K12">
-    <cfRule type="expression" dxfId="27" priority="6">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>(ABS((K5-G5))/G5)&gt;PorcentajeMarca</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:L12">
-    <cfRule type="expression" dxfId="26" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>(ABS((L5-H5))/H5)&gt;PorcentajeMarca</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4475,38 +4470,38 @@
   <sheetData>
     <row r="1" spans="2:3" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="7"/>
     </row>
